--- a/plantillas_formatos/Formatos/respaldo/Melissa Esmeralda Corrales Pineda/SIMA_PLAN_Melissa Esmeralda Corrales Pineda.xlsx
+++ b/plantillas_formatos/Formatos/respaldo/Melissa Esmeralda Corrales Pineda/SIMA_PLAN_Melissa Esmeralda Corrales Pineda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mata9585\Desktop\Dany\scripts\Python\V2\LlenadoDeFormatos\plantillas_formatos\Formatos\Melissa Esmeralda Corrales Pineda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833AF691-FEFA-4A5E-B083-6628170D6D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B9DCEB-0732-4AC5-B1B4-5BCF2D04391E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,7 +707,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">  2 de Febrero 2024            </t>
+      <t xml:space="preserve">  14 de Febrero 2024            </t>
     </r>
   </si>
 </sst>
@@ -1254,10 +1254,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A4:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1759,6 +1762,7 @@
     <mergeCell ref="A39:G39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>